--- a/data/scheduling_DNN/predict/0.1/result22.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result22.xlsx
@@ -570,10 +570,10 @@
         <v>1.342206001281738</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.5149891376495361</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7823620438575745</v>
+        <v>0.6842877268791199</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9773969650268555</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.9532219171524048</v>
       </c>
       <c r="W3" t="n">
-        <v>0.293091207742691</v>
+        <v>0.0005844329134561121</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9132218360900879</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.478558361530304</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1135891750454903</v>
+        <v>0.188932329416275</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8862838745117188</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.8957041501998901</v>
       </c>
       <c r="W5" t="n">
-        <v>0.07155174762010574</v>
+        <v>8.874159539118409e-05</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8809549808502197</v>
       </c>
       <c r="V6" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.950958788394928</v>
       </c>
       <c r="W6" t="n">
-        <v>0.02166088856756687</v>
+        <v>0.004900533240288496</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8732669353485107</v>
       </c>
       <c r="V7" t="n">
-        <v>0.436027318239212</v>
+        <v>0.5241092443466187</v>
       </c>
       <c r="W7" t="n">
-        <v>0.191178485751152</v>
+        <v>0.1219110935926437</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8806121349334717</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.9250140190124512</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1789082884788513</v>
+        <v>0.001971527235582471</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.9587018489837646</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.5377789735794067</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1673195511102676</v>
+        <v>0.1771760731935501</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8938717842102051</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.4774160385131836</v>
       </c>
       <c r="W10" t="n">
-        <v>0.04405411705374718</v>
+        <v>0.173435389995575</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8790328502655029</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.9464664459228516</v>
       </c>
       <c r="W11" t="n">
-        <v>0.04927415773272514</v>
+        <v>0.004547290038317442</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8729121685028076</v>
       </c>
       <c r="V12" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.5799849629402161</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0601925291121006</v>
+        <v>0.08580634742975235</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9231510162353516</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.8861247897148132</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2202735990285873</v>
+        <v>0.001370941405184567</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8762860298156738</v>
       </c>
       <c r="V14" t="n">
-        <v>0.551541268825531</v>
+        <v>0.5515799522399902</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1054591611027718</v>
+        <v>0.1054340377449989</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9021298885345459</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.4844362139701843</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1974653601646423</v>
+        <v>0.1744680106639862</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8747210502624512</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.8882626891136169</v>
       </c>
       <c r="W16" t="n">
-        <v>0.159179300069809</v>
+        <v>0.0001833759888540953</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.9448649883270264</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.9191296696662903</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1360018700361252</v>
+        <v>0.0006623066146858037</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.937993049621582</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.5431799292564392</v>
       </c>
       <c r="W18" t="n">
-        <v>0.06411745399236679</v>
+        <v>0.1558773964643478</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>1.25940990447998</v>
       </c>
       <c r="V19" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.8809435963630676</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2784936428070068</v>
+        <v>0.1432367414236069</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>1.516690015792847</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.4682000875473022</v>
       </c>
       <c r="W20" t="n">
-        <v>1.16736102104187</v>
+        <v>1.099331140518188</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.938385009765625</v>
       </c>
       <c r="V21" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.8849347829818726</v>
       </c>
       <c r="W21" t="n">
-        <v>0.08564324676990509</v>
+        <v>0.002856926759704947</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5490059852600098</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.4851161241531372</v>
       </c>
       <c r="W22" t="n">
-        <v>3.036636735487264e-05</v>
+        <v>0.004081914201378822</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5419609546661377</v>
       </c>
       <c r="V23" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.9621400833129883</v>
       </c>
       <c r="W23" t="n">
-        <v>0.00682240491732955</v>
+        <v>0.1765505075454712</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5851378440856934</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.8809448480606079</v>
       </c>
       <c r="W24" t="n">
-        <v>0.000997031107544899</v>
+        <v>0.08750178664922714</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5335700511932373</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.895225465297699</v>
       </c>
       <c r="W25" t="n">
-        <v>0.005626535974442959</v>
+        <v>0.1307946443557739</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5451769828796387</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.9019256830215454</v>
       </c>
       <c r="W26" t="n">
-        <v>0.006210091523826122</v>
+        <v>0.1272696405649185</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5256309509277344</v>
       </c>
       <c r="V27" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.5302050113677979</v>
       </c>
       <c r="W27" t="n">
-        <v>0.08454528450965881</v>
+        <v>2.092202885251027e-05</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.524014949798584</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.5392404794692993</v>
       </c>
       <c r="W28" t="n">
-        <v>0.004365936852991581</v>
+        <v>0.0002318167535122484</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5397899150848389</v>
       </c>
       <c r="V29" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.4793330430984497</v>
       </c>
       <c r="W29" t="n">
-        <v>0.07670744508504868</v>
+        <v>0.003655033418908715</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5469319820404053</v>
       </c>
       <c r="V30" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.5797209143638611</v>
       </c>
       <c r="W30" t="n">
-        <v>0.001460644532926381</v>
+        <v>0.001075114123523235</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5215559005737305</v>
       </c>
       <c r="V31" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.4694395661354065</v>
       </c>
       <c r="W31" t="n">
-        <v>0.02300269715487957</v>
+        <v>0.002716112416237593</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5389750003814697</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.5302449464797974</v>
       </c>
       <c r="W32" t="n">
-        <v>0.007292536552995443</v>
+        <v>7.621384429512545e-05</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5233540534973145</v>
       </c>
       <c r="V33" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.5796685218811035</v>
       </c>
       <c r="W33" t="n">
-        <v>0.02049626596271992</v>
+        <v>0.00317131937481463</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5361299514770508</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.4676945209503174</v>
       </c>
       <c r="W34" t="n">
-        <v>0.006006474141031504</v>
+        <v>0.004683407954871655</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.525860071182251</v>
       </c>
       <c r="V35" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.894192636013031</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01814780011773109</v>
+        <v>0.1356688737869263</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5260269641876221</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.5271590948104858</v>
       </c>
       <c r="W36" t="n">
-        <v>0.002791051054373384</v>
+        <v>1.281719733015052e-06</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5261528491973877</v>
       </c>
       <c r="V37" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.9348651766777039</v>
       </c>
       <c r="W37" t="n">
-        <v>0.0215983334928751</v>
+        <v>0.1670457720756531</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5310781002044678</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.5400428175926208</v>
       </c>
       <c r="W38" t="n">
-        <v>0.007895809598267078</v>
+        <v>8.036616054596379e-05</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5236918926239014</v>
       </c>
       <c r="V39" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.4749207496643066</v>
       </c>
       <c r="W39" t="n">
-        <v>2.009018373883009e-08</v>
+        <v>0.002378624398261309</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5794110298156738</v>
       </c>
       <c r="V40" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.9509602189064026</v>
       </c>
       <c r="W40" t="n">
-        <v>0.006263508927077055</v>
+        <v>0.1380487978458405</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5270490646362305</v>
       </c>
       <c r="V41" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.8997337222099304</v>
       </c>
       <c r="W41" t="n">
-        <v>0.0005239208112470806</v>
+        <v>0.1388938575983047</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3987400531768799</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.8749006390571594</v>
       </c>
       <c r="W42" t="n">
-        <v>0.06661359965801239</v>
+        <v>0.2267289012670517</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4137330055236816</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.487226665019989</v>
       </c>
       <c r="W43" t="n">
-        <v>0.0008008909644559026</v>
+        <v>0.005401317961513996</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3927619457244873</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.5043250918388367</v>
       </c>
       <c r="W44" t="n">
-        <v>0.001871410291641951</v>
+        <v>0.01244633551687002</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3927068710327148</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.4821586608886719</v>
       </c>
       <c r="W45" t="n">
-        <v>0.006438043434172869</v>
+        <v>0.008001622743904591</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.4496729373931885</v>
       </c>
       <c r="V46" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.5236392021179199</v>
       </c>
       <c r="W46" t="n">
-        <v>0.002953600604087114</v>
+        <v>0.005471008364111185</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4260520935058594</v>
       </c>
       <c r="V47" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.4685317277908325</v>
       </c>
       <c r="W47" t="n">
-        <v>0.02022700943052769</v>
+        <v>0.001804519328288734</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3977460861206055</v>
       </c>
       <c r="V48" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.4749875664710999</v>
       </c>
       <c r="W48" t="n">
-        <v>0.0003572767309378833</v>
+        <v>0.005966246128082275</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3939359188079834</v>
       </c>
       <c r="V49" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.9460323452949524</v>
       </c>
       <c r="W49" t="n">
-        <v>0.1842446178197861</v>
+        <v>0.3048104643821716</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3958051204681396</v>
       </c>
       <c r="V50" t="n">
-        <v>0.473088413476944</v>
+        <v>0.4773866534233093</v>
       </c>
       <c r="W50" t="n">
-        <v>0.00597270717844367</v>
+        <v>0.006655546370893717</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3941810131072998</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.5302882194519043</v>
       </c>
       <c r="W51" t="n">
-        <v>0.02494087256491184</v>
+        <v>0.01852517202496529</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.4424741268157959</v>
       </c>
       <c r="V52" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.4795655012130737</v>
       </c>
       <c r="W52" t="n">
-        <v>0.04049453884363174</v>
+        <v>0.001375770079903305</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3966560363769531</v>
       </c>
       <c r="V53" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.9045405983924866</v>
       </c>
       <c r="W53" t="n">
-        <v>0.001549436128698289</v>
+        <v>0.2579467296600342</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3940250873565674</v>
       </c>
       <c r="V54" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.9255549311637878</v>
       </c>
       <c r="W54" t="n">
-        <v>0.001735444762744009</v>
+        <v>0.2825239896774292</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.396367073059082</v>
       </c>
       <c r="V55" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.9429266452789307</v>
       </c>
       <c r="W55" t="n">
-        <v>0.05256767570972443</v>
+        <v>0.2987273633480072</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3932750225067139</v>
       </c>
       <c r="V56" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.5324692726135254</v>
       </c>
       <c r="W56" t="n">
-        <v>0.06436877697706223</v>
+        <v>0.01937503926455975</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3882350921630859</v>
       </c>
       <c r="V57" t="n">
-        <v>0.630542516708374</v>
+        <v>0.4830530285835266</v>
       </c>
       <c r="W57" t="n">
-        <v>0.05871288850903511</v>
+        <v>0.00899044144898653</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.4023089408874512</v>
       </c>
       <c r="V58" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.4823268055915833</v>
       </c>
       <c r="W58" t="n">
-        <v>0.1678244322538376</v>
+        <v>0.006402858532965183</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3948659896850586</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.554963231086731</v>
       </c>
       <c r="W59" t="n">
-        <v>0.003716448089107871</v>
+        <v>0.0256311260163784</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3963580131530762</v>
       </c>
       <c r="V60" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.5586991906166077</v>
       </c>
       <c r="W60" t="n">
-        <v>0.02877012826502323</v>
+        <v>0.02635465748608112</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3960599899291992</v>
       </c>
       <c r="V61" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.5300912261009216</v>
       </c>
       <c r="W61" t="n">
-        <v>0.05380320176482201</v>
+        <v>0.01796437241137028</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8869621753692627</v>
       </c>
       <c r="V62" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.5299988389015198</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1687439680099487</v>
+        <v>0.1274228245019913</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8724710941314697</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.8927375078201294</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1567613333463669</v>
+        <v>0.0004107275162823498</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8696370124816895</v>
       </c>
       <c r="V64" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.8849072456359863</v>
       </c>
       <c r="W64" t="n">
-        <v>0.05845562741160393</v>
+        <v>0.0002331800205865875</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8761568069458008</v>
       </c>
       <c r="V65" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.5428822636604309</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1646352410316467</v>
+        <v>0.1110719218850136</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8929910659790039</v>
       </c>
       <c r="V66" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.8950554132461548</v>
       </c>
       <c r="W66" t="n">
-        <v>0.07505009323358536</v>
+        <v>4.261529738869285e-06</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8691060543060303</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.5333656072616577</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1395498365163803</v>
+        <v>0.1127216443419456</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9075441360473633</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.5794369578361511</v>
       </c>
       <c r="W68" t="n">
-        <v>0.08292531967163086</v>
+        <v>0.1076543182134628</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8740408420562744</v>
       </c>
       <c r="V69" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.54099041223526</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1661905944347382</v>
+        <v>0.1109225898981094</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8886280059814453</v>
       </c>
       <c r="V70" t="n">
-        <v>0.473930835723877</v>
+        <v>0.4792399406433105</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1719737499952316</v>
+        <v>0.1675985902547836</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.9271600246429443</v>
       </c>
       <c r="V71" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.9183047413825989</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1417225450277328</v>
+        <v>7.841604383429512e-05</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8688631057739258</v>
       </c>
       <c r="V72" t="n">
-        <v>0.56818687915802</v>
+        <v>0.4757072329521179</v>
       </c>
       <c r="W72" t="n">
-        <v>0.09040619432926178</v>
+        <v>0.154571533203125</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8749961853027344</v>
       </c>
       <c r="V73" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.8809302449226379</v>
       </c>
       <c r="W73" t="n">
-        <v>0.01908660121262074</v>
+        <v>3.521306280163117e-05</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8785560131072998</v>
       </c>
       <c r="V74" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.5309774875640869</v>
       </c>
       <c r="W74" t="n">
-        <v>0.2492029815912247</v>
+        <v>0.120810829102993</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.9640328884124756</v>
       </c>
       <c r="V75" t="n">
-        <v>0.561543881893158</v>
+        <v>0.8944831490516663</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1619974076747894</v>
+        <v>0.004837166052311659</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8939120769500732</v>
       </c>
       <c r="V76" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.5314022898674011</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1160132810473442</v>
+        <v>0.1314133405685425</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8707830905914307</v>
       </c>
       <c r="V77" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.5743082761764526</v>
       </c>
       <c r="W77" t="n">
-        <v>0.03302667289972305</v>
+        <v>0.08789731562137604</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8731839656829834</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.4787529706954956</v>
       </c>
       <c r="W78" t="n">
-        <v>0.09268263727426529</v>
+        <v>0.1555758118629456</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.9325888156890869</v>
       </c>
       <c r="V79" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.4743064045906067</v>
       </c>
       <c r="W79" t="n">
-        <v>0.2194200307130814</v>
+        <v>0.2100227624177933</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8678898811340332</v>
       </c>
       <c r="V80" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.8911827206611633</v>
       </c>
       <c r="W80" t="n">
-        <v>0.01833317615091801</v>
+        <v>0.0005425564013421535</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8697571754455566</v>
       </c>
       <c r="V81" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.8958829641342163</v>
       </c>
       <c r="W81" t="n">
-        <v>0.01342395041137934</v>
+        <v>0.0006825568270869553</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5568859577178955</v>
       </c>
       <c r="V82" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.5430557131767273</v>
       </c>
       <c r="W82" t="n">
-        <v>0.003938787151128054</v>
+        <v>0.000191275670658797</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5416650772094727</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.9503915905952454</v>
       </c>
       <c r="W83" t="n">
-        <v>0.01116271130740643</v>
+        <v>0.1670573651790619</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5204131603240967</v>
       </c>
       <c r="V84" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.5121157169342041</v>
       </c>
       <c r="W84" t="n">
-        <v>0.003836653893813491</v>
+        <v>6.884757021907717e-05</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5267789363861084</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.5370688438415527</v>
       </c>
       <c r="W85" t="n">
-        <v>0.008236137218773365</v>
+        <v>0.0001058821944752708</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5216360092163086</v>
       </c>
       <c r="V86" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.477449357509613</v>
       </c>
       <c r="W86" t="n">
-        <v>0.002542072907090187</v>
+        <v>0.001952460152097046</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5195479393005371</v>
       </c>
       <c r="V87" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.8929021954536438</v>
       </c>
       <c r="W87" t="n">
-        <v>0.003820452373474836</v>
+        <v>0.1393934041261673</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5234050750732422</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.9196673035621643</v>
       </c>
       <c r="W88" t="n">
-        <v>0.0008529473561793566</v>
+        <v>0.1570237576961517</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5823941230773926</v>
       </c>
       <c r="V89" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.5790045261383057</v>
       </c>
       <c r="W89" t="n">
-        <v>0.001742740161716938</v>
+        <v>1.148936735262396e-05</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5251171588897705</v>
       </c>
       <c r="V90" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.4834082126617432</v>
       </c>
       <c r="W90" t="n">
-        <v>0.01767464354634285</v>
+        <v>0.001739636179991066</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5282690525054932</v>
       </c>
       <c r="V91" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.8766382336616516</v>
       </c>
       <c r="W91" t="n">
-        <v>0.01325534377247095</v>
+        <v>0.1213610842823982</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5239849090576172</v>
       </c>
       <c r="V92" t="n">
-        <v>0.471180647611618</v>
+        <v>0.5402392148971558</v>
       </c>
       <c r="W92" t="n">
-        <v>0.002788289915770292</v>
+        <v>0.0002642024483066052</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5239300727844238</v>
       </c>
       <c r="V93" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.5946820378303528</v>
       </c>
       <c r="W93" t="n">
-        <v>0.000415906630223617</v>
+        <v>0.005005840677767992</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5278730392456055</v>
       </c>
       <c r="V94" t="n">
-        <v>0.475897878408432</v>
+        <v>0.4774051308631897</v>
       </c>
       <c r="W94" t="n">
-        <v>0.002701417310163379</v>
+        <v>0.002547009848058224</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5188009738922119</v>
       </c>
       <c r="V95" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.8957216143608093</v>
       </c>
       <c r="W95" t="n">
-        <v>0.002495884196832776</v>
+        <v>0.1420691758394241</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5258519649505615</v>
       </c>
       <c r="V96" t="n">
-        <v>0.504918098449707</v>
+        <v>0.491353452205658</v>
       </c>
       <c r="W96" t="n">
-        <v>0.0004382267652545124</v>
+        <v>0.001190147362649441</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5227510929107666</v>
       </c>
       <c r="V97" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.9607581496238708</v>
       </c>
       <c r="W97" t="n">
-        <v>0.002638309961184859</v>
+        <v>0.1918501853942871</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5279080867767334</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.5250059962272644</v>
       </c>
       <c r="W98" t="n">
-        <v>0.0005742612993344665</v>
+        <v>8.422129212704021e-06</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5220367908477783</v>
       </c>
       <c r="V99" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.8954178094863892</v>
       </c>
       <c r="W99" t="n">
-        <v>0.08670166879892349</v>
+        <v>0.1394133865833282</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5400731563568115</v>
       </c>
       <c r="V100" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.4716888666152954</v>
       </c>
       <c r="W100" t="n">
-        <v>0.0008595925755798817</v>
+        <v>0.004676410928368568</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5267329216003418</v>
       </c>
       <c r="V101" t="n">
-        <v>0.57613205909729</v>
+        <v>0.5302885174751282</v>
       </c>
       <c r="W101" t="n">
-        <v>0.002440274693071842</v>
+        <v>1.264226193598006e-05</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4150691032409668</v>
       </c>
       <c r="V102" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.5544030070304871</v>
       </c>
       <c r="W102" t="n">
-        <v>0.008406608365476131</v>
+        <v>0.01941393688321114</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4059710502624512</v>
       </c>
       <c r="V103" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.5423967242240906</v>
       </c>
       <c r="W103" t="n">
-        <v>0.004753288347274065</v>
+        <v>0.01861196383833885</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4022119045257568</v>
       </c>
       <c r="V104" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.4743210077285767</v>
       </c>
       <c r="W104" t="n">
-        <v>0.00404704175889492</v>
+        <v>0.005199722945690155</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4207131862640381</v>
       </c>
       <c r="V105" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.9827613234519958</v>
       </c>
       <c r="W105" t="n">
-        <v>0.004363979678601027</v>
+        <v>0.3158981204032898</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.39255690574646</v>
       </c>
       <c r="V106" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.5949506163597107</v>
       </c>
       <c r="W106" t="n">
-        <v>0.06311196088790894</v>
+        <v>0.04096321389079094</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3963751792907715</v>
       </c>
       <c r="V107" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.5791122913360596</v>
       </c>
       <c r="W107" t="n">
-        <v>0.006333732046186924</v>
+        <v>0.03339285030961037</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3937528133392334</v>
       </c>
       <c r="V108" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.4685806035995483</v>
       </c>
       <c r="W108" t="n">
-        <v>0.004070121329277754</v>
+        <v>0.005599198397248983</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.395982027053833</v>
       </c>
       <c r="V109" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.5426052808761597</v>
       </c>
       <c r="W109" t="n">
-        <v>0.01172983925789595</v>
+        <v>0.02149837836623192</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3957040309906006</v>
       </c>
       <c r="V110" t="n">
-        <v>0.476378470659256</v>
+        <v>0.5783385038375854</v>
       </c>
       <c r="W110" t="n">
-        <v>0.006508365273475647</v>
+        <v>0.03335535153746605</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3968808650970459</v>
       </c>
       <c r="V111" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.4685781002044678</v>
       </c>
       <c r="W111" t="n">
-        <v>0.0003423613961786032</v>
+        <v>0.005140493623912334</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4460499286651611</v>
       </c>
       <c r="V112" t="n">
-        <v>0.812067985534668</v>
+        <v>0.4826152324676514</v>
       </c>
       <c r="W112" t="n">
-        <v>0.1339692175388336</v>
+        <v>0.001337021472863853</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.4010078907012939</v>
       </c>
       <c r="V113" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.4821833372116089</v>
       </c>
       <c r="W113" t="n">
-        <v>0.003193117445334792</v>
+        <v>0.00658945320174098</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.395226001739502</v>
       </c>
       <c r="V114" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.4687740802764893</v>
       </c>
       <c r="W114" t="n">
-        <v>0.0002630807866808027</v>
+        <v>0.005409319885075092</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.4001700878143311</v>
       </c>
       <c r="V115" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.5308975577354431</v>
       </c>
       <c r="W115" t="n">
-        <v>0.003305071732029319</v>
+        <v>0.01708967052400112</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3981449604034424</v>
       </c>
       <c r="V116" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.5062660574913025</v>
       </c>
       <c r="W116" t="n">
-        <v>0.004386302083730698</v>
+        <v>0.01169017143547535</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3904159069061279</v>
       </c>
       <c r="V117" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.8834182620048523</v>
       </c>
       <c r="W117" t="n">
-        <v>0.002080403501167893</v>
+        <v>0.2430513203144073</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4669492244720459</v>
       </c>
       <c r="V118" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.5434827208518982</v>
       </c>
       <c r="W118" t="n">
-        <v>0.03606659919023514</v>
+        <v>0.005857375916093588</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3957831859588623</v>
       </c>
       <c r="V119" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.9869323372840881</v>
       </c>
       <c r="W119" t="n">
-        <v>0.01107512880116701</v>
+        <v>0.349457323551178</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3995671272277832</v>
       </c>
       <c r="V120" t="n">
-        <v>0.618610143661499</v>
+        <v>0.5055341720581055</v>
       </c>
       <c r="W120" t="n">
-        <v>0.04797984287142754</v>
+        <v>0.01122901495546103</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3945350646972656</v>
       </c>
       <c r="V121" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.934324324131012</v>
       </c>
       <c r="W121" t="n">
-        <v>0.02999489940702915</v>
+        <v>0.2913724482059479</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8897221088409424</v>
       </c>
       <c r="V122" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.4835472106933594</v>
       </c>
       <c r="W122" t="n">
-        <v>0.2613047957420349</v>
+        <v>0.1649780422449112</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9937980175018311</v>
       </c>
       <c r="V123" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.469160258769989</v>
       </c>
       <c r="W123" t="n">
-        <v>0.3744053840637207</v>
+        <v>0.2752447724342346</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8981039524078369</v>
       </c>
       <c r="V124" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.5388530492782593</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1962253004312515</v>
+        <v>0.1290612071752548</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8838739395141602</v>
       </c>
       <c r="V125" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.9034671783447266</v>
       </c>
       <c r="W125" t="n">
-        <v>0.1121609807014465</v>
+        <v>0.0003838950069621205</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8969249725341797</v>
       </c>
       <c r="V126" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.479770302772522</v>
       </c>
       <c r="W126" t="n">
-        <v>0.1025237441062927</v>
+        <v>0.1740180253982544</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.9343900680541992</v>
       </c>
       <c r="V127" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.544890284538269</v>
       </c>
       <c r="W127" t="n">
-        <v>0.230484738945961</v>
+        <v>0.1517100781202316</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8711130619049072</v>
       </c>
       <c r="V128" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.5790770053863525</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1707513034343719</v>
+        <v>0.08528506010770798</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.869624137878418</v>
       </c>
       <c r="V129" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.46859210729599</v>
       </c>
       <c r="W129" t="n">
-        <v>0.0598919540643692</v>
+        <v>0.1608266830444336</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8828458786010742</v>
       </c>
       <c r="V130" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.476531982421875</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1737585067749023</v>
+        <v>0.1650909781455994</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.9320499897003174</v>
       </c>
       <c r="V131" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.4775664210319519</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1344181001186371</v>
+        <v>0.2065553069114685</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8754210472106934</v>
       </c>
       <c r="V132" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.8928164839744568</v>
       </c>
       <c r="W132" t="n">
-        <v>0.2355363667011261</v>
+        <v>0.0003026012273039669</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8792459964752197</v>
       </c>
       <c r="V133" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.483161985874176</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1964459121227264</v>
+        <v>0.1568825393915176</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8755419254302979</v>
       </c>
       <c r="V134" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.9046482443809509</v>
       </c>
       <c r="W134" t="n">
-        <v>0.101232647895813</v>
+        <v>0.0008471778128296137</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.9424901008605957</v>
       </c>
       <c r="V135" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.5447832942008972</v>
       </c>
       <c r="W135" t="n">
-        <v>0.2567833364009857</v>
+        <v>0.1581707000732422</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.875154972076416</v>
       </c>
       <c r="V136" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.8745912909507751</v>
       </c>
       <c r="W136" t="n">
-        <v>0.1603723913431168</v>
+        <v>3.177364078510436e-07</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8716340065002441</v>
       </c>
       <c r="V137" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.4840554594993591</v>
       </c>
       <c r="W137" t="n">
-        <v>0.06130119413137436</v>
+        <v>0.15021713078022</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8704140186309814</v>
       </c>
       <c r="V138" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.8807264566421509</v>
       </c>
       <c r="W138" t="n">
-        <v>0.002951994072645903</v>
+        <v>0.0001063463787431829</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.936373233795166</v>
       </c>
       <c r="V139" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.9113783836364746</v>
       </c>
       <c r="W139" t="n">
-        <v>0.2507530152797699</v>
+        <v>0.0006247425335459411</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8758339881896973</v>
       </c>
       <c r="V140" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.5299984216690063</v>
       </c>
       <c r="W140" t="n">
-        <v>0.103869192302227</v>
+        <v>0.1196022406220436</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8736388683319092</v>
       </c>
       <c r="V141" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.9005651473999023</v>
       </c>
       <c r="W141" t="n">
-        <v>0.1032193824648857</v>
+        <v>0.0007250244962051511</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5367980003356934</v>
       </c>
       <c r="V142" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.469290018081665</v>
       </c>
       <c r="W142" t="n">
-        <v>0.00119923276361078</v>
+        <v>0.004557327833026648</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5830550193786621</v>
       </c>
       <c r="V143" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.5231189727783203</v>
       </c>
       <c r="W143" t="n">
-        <v>0.01405669655650854</v>
+        <v>0.003592329798266292</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5311100482940674</v>
       </c>
       <c r="V144" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.530124306678772</v>
       </c>
       <c r="W144" t="n">
-        <v>0.01384697202593088</v>
+        <v>9.716865179143497e-07</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5249888896942139</v>
       </c>
       <c r="V145" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.5312076807022095</v>
       </c>
       <c r="W145" t="n">
-        <v>0.0008765284437686205</v>
+        <v>3.867336272378452e-05</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5285849571228027</v>
       </c>
       <c r="V146" t="n">
-        <v>0.551414966583252</v>
+        <v>0.4833361506462097</v>
       </c>
       <c r="W146" t="n">
-        <v>0.0005212093237787485</v>
+        <v>0.002047454472631216</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5333991050720215</v>
       </c>
       <c r="V147" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.9045212864875793</v>
       </c>
       <c r="W147" t="n">
-        <v>0.008276610635221004</v>
+        <v>0.137731671333313</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5285530090332031</v>
       </c>
       <c r="V148" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.5151149034500122</v>
       </c>
       <c r="W148" t="n">
-        <v>0.001700743101537228</v>
+        <v>0.0001805826759664342</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.526259183883667</v>
       </c>
       <c r="V149" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.5301617383956909</v>
       </c>
       <c r="W149" t="n">
-        <v>0.08423298597335815</v>
+        <v>1.522993170510745e-05</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5314209461212158</v>
       </c>
       <c r="V150" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.5955129265785217</v>
       </c>
       <c r="W150" t="n">
-        <v>0.006051825359463692</v>
+        <v>0.004107782151550055</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5219159126281738</v>
       </c>
       <c r="V151" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.484441876411438</v>
       </c>
       <c r="W151" t="n">
-        <v>0.08424405753612518</v>
+        <v>0.001404303358867764</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5245277881622314</v>
       </c>
       <c r="V152" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.5401178598403931</v>
       </c>
       <c r="W152" t="n">
-        <v>0.04578104615211487</v>
+        <v>0.0002430503373034298</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5265259742736816</v>
       </c>
       <c r="V153" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.4833294749259949</v>
       </c>
       <c r="W153" t="n">
-        <v>0.002740973373875022</v>
+        <v>0.001865937607362866</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5716469287872314</v>
       </c>
       <c r="V154" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.53024822473526</v>
       </c>
       <c r="W154" t="n">
-        <v>0.007960790768265724</v>
+        <v>0.001713852747343481</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5299220085144043</v>
       </c>
       <c r="V155" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.8850443959236145</v>
       </c>
       <c r="W155" t="n">
-        <v>0.02500805258750916</v>
+        <v>0.1261119097471237</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5253429412841797</v>
       </c>
       <c r="V156" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.4734704494476318</v>
       </c>
       <c r="W156" t="n">
-        <v>0.0007467161049135029</v>
+        <v>0.002690755296498537</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5179848670959473</v>
       </c>
       <c r="V157" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.5314529538154602</v>
       </c>
       <c r="W157" t="n">
-        <v>0.01151649747043848</v>
+        <v>0.0001813893613871187</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5267429351806641</v>
       </c>
       <c r="V158" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.5416347980499268</v>
       </c>
       <c r="W158" t="n">
-        <v>0.01687412895262241</v>
+        <v>0.0002217675792053342</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.521622896194458</v>
       </c>
       <c r="V159" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.9230490922927856</v>
       </c>
       <c r="W159" t="n">
-        <v>0.007316173519939184</v>
+        <v>0.1611429899930954</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5233471393585205</v>
       </c>
       <c r="V160" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.9172741770744324</v>
       </c>
       <c r="W160" t="n">
-        <v>0.004235129337757826</v>
+        <v>0.1551785171031952</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5269260406494141</v>
       </c>
       <c r="V161" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.4684807658195496</v>
       </c>
       <c r="W161" t="n">
-        <v>0.0006045105983503163</v>
+        <v>0.003415850223973393</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3999547958374023</v>
       </c>
       <c r="V162" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.5407360792160034</v>
       </c>
       <c r="W162" t="n">
-        <v>0.001308788894675672</v>
+        <v>0.01981936953961849</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.4008548259735107</v>
       </c>
       <c r="V163" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.9492860436439514</v>
       </c>
       <c r="W163" t="n">
-        <v>0.06640042364597321</v>
+        <v>0.3007768094539642</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3978359699249268</v>
       </c>
       <c r="V164" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.9139317870140076</v>
       </c>
       <c r="W164" t="n">
-        <v>0.02314393781125546</v>
+        <v>0.266354888677597</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.4433770179748535</v>
       </c>
       <c r="V165" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.4772470593452454</v>
       </c>
       <c r="W165" t="n">
-        <v>0.08596652746200562</v>
+        <v>0.001147179747931659</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3995380401611328</v>
       </c>
       <c r="V166" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.8941031098365784</v>
       </c>
       <c r="W166" t="n">
-        <v>0.05027061700820923</v>
+        <v>0.2445946037769318</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3974969387054443</v>
       </c>
       <c r="V167" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.9342832565307617</v>
       </c>
       <c r="W167" t="n">
-        <v>5.474817953654565e-05</v>
+        <v>0.2881395518779755</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3983309268951416</v>
       </c>
       <c r="V168" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.5418918132781982</v>
       </c>
       <c r="W168" t="n">
-        <v>0.0002561736910138279</v>
+        <v>0.02060972899198532</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.4111289978027344</v>
       </c>
       <c r="V169" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.5799757838249207</v>
       </c>
       <c r="W169" t="n">
-        <v>0.007659625727683306</v>
+        <v>0.0285092368721962</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3988070487976074</v>
       </c>
       <c r="V170" t="n">
-        <v>0.569115161895752</v>
+        <v>0.4773873686790466</v>
       </c>
       <c r="W170" t="n">
-        <v>0.02900485321879387</v>
+        <v>0.006174866575747728</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3976080417633057</v>
       </c>
       <c r="V171" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.8775401711463928</v>
       </c>
       <c r="W171" t="n">
-        <v>0.001445084228180349</v>
+        <v>0.2303348481655121</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4016599655151367</v>
       </c>
       <c r="V172" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.519101619720459</v>
       </c>
       <c r="W172" t="n">
-        <v>0.0225414615124464</v>
+        <v>0.01379254180938005</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3991079330444336</v>
       </c>
       <c r="V173" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.5302269458770752</v>
       </c>
       <c r="W173" t="n">
-        <v>0.004482305608689785</v>
+        <v>0.01719219610095024</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4213919639587402</v>
       </c>
       <c r="V174" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.9337710738182068</v>
       </c>
       <c r="W174" t="n">
-        <v>0.05553190782666206</v>
+        <v>0.2625323534011841</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3998570442199707</v>
       </c>
       <c r="V175" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.5189760327339172</v>
       </c>
       <c r="W175" t="n">
-        <v>0.001308079576119781</v>
+        <v>0.01418933365494013</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.4042558670043945</v>
       </c>
       <c r="V176" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.5312058329582214</v>
       </c>
       <c r="W176" t="n">
-        <v>0.05280989781022072</v>
+        <v>0.01611629314720631</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4181950092315674</v>
       </c>
       <c r="V177" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.9104933142662048</v>
       </c>
       <c r="W177" t="n">
-        <v>0.0199771523475647</v>
+        <v>0.2423576265573502</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3984708786010742</v>
       </c>
       <c r="V178" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.9156559109687805</v>
       </c>
       <c r="W178" t="n">
-        <v>0.001431536977179348</v>
+        <v>0.267480343580246</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3984289169311523</v>
       </c>
       <c r="V179" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.5788000822067261</v>
       </c>
       <c r="W179" t="n">
-        <v>0.005944434553384781</v>
+        <v>0.03253375738859177</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3977501392364502</v>
       </c>
       <c r="V180" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.4794338345527649</v>
       </c>
       <c r="W180" t="n">
-        <v>0.1809507757425308</v>
+        <v>0.006672225892543793</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4098081588745117</v>
       </c>
       <c r="V181" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.4880666732788086</v>
       </c>
       <c r="W181" t="n">
-        <v>0.003205956192687154</v>
+        <v>0.006124394945800304</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.9138419628143311</v>
       </c>
       <c r="V182" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.5220664739608765</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1682246327400208</v>
+        <v>0.1534880399703979</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>1.059429883956909</v>
       </c>
       <c r="V183" t="n">
-        <v>0.624763011932373</v>
+        <v>1.038658857345581</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1889352947473526</v>
+        <v>0.0004314355319365859</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8854150772094727</v>
       </c>
       <c r="V184" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.5420219302177429</v>
       </c>
       <c r="W184" t="n">
-        <v>0.08094662427902222</v>
+        <v>0.1179188564419746</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.876882791519165</v>
       </c>
       <c r="V185" t="n">
-        <v>0.480756551027298</v>
+        <v>0.5302013158798218</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1569159924983978</v>
+        <v>0.1201880425214767</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8744971752166748</v>
       </c>
       <c r="V186" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.5048317909240723</v>
       </c>
       <c r="W186" t="n">
-        <v>0.06269637495279312</v>
+        <v>0.1366524994373322</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8969740867614746</v>
       </c>
       <c r="V187" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.5798985958099365</v>
       </c>
       <c r="W187" t="n">
-        <v>0.1685271263122559</v>
+        <v>0.1005368679761887</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8783450126647949</v>
       </c>
       <c r="V188" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.530267596244812</v>
       </c>
       <c r="W188" t="n">
-        <v>0.1715767532587051</v>
+        <v>0.1211578845977783</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8763570785522461</v>
       </c>
       <c r="V189" t="n">
-        <v>0.551807165145874</v>
+        <v>0.5213310718536377</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1053326427936554</v>
+        <v>0.1260434687137604</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8776209354400635</v>
       </c>
       <c r="V190" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.4890783429145813</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1052702143788338</v>
+        <v>0.1509653478860855</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.900536060333252</v>
       </c>
       <c r="V191" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.5407578945159912</v>
       </c>
       <c r="W191" t="n">
-        <v>0.2160248905420303</v>
+        <v>0.1294403225183487</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8763070106506348</v>
       </c>
       <c r="V192" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.5153794288635254</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1043088734149933</v>
+        <v>0.1302687227725983</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8742308616638184</v>
       </c>
       <c r="V193" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.5312468409538269</v>
       </c>
       <c r="W193" t="n">
-        <v>0.1068102344870567</v>
+        <v>0.117638036608696</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8772718906402588</v>
       </c>
       <c r="V194" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.9357602000236511</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1052169948816299</v>
+        <v>0.003420882392674685</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.876823902130127</v>
       </c>
       <c r="V195" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.5322557687759399</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1752544045448303</v>
+        <v>0.1187271997332573</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8722898960113525</v>
       </c>
       <c r="V196" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.4825071692466736</v>
       </c>
       <c r="W196" t="n">
-        <v>0.03503628075122833</v>
+        <v>0.151930570602417</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8927888870239258</v>
       </c>
       <c r="V197" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.5792625546455383</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1140319555997849</v>
+        <v>0.09829875826835632</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.9061059951782227</v>
       </c>
       <c r="V198" t="n">
-        <v>0.435836523771286</v>
+        <v>0.4832147359848022</v>
       </c>
       <c r="W198" t="n">
-        <v>0.2211533784866333</v>
+        <v>0.1788370162248611</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8935010433197021</v>
       </c>
       <c r="V199" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.983204185962677</v>
       </c>
       <c r="W199" t="n">
-        <v>0.07168082147836685</v>
+        <v>0.008046654053032398</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8691251277923584</v>
       </c>
       <c r="V200" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.875266432762146</v>
       </c>
       <c r="W200" t="n">
-        <v>0.187939316034317</v>
+        <v>3.771562842302956e-05</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8828659057617188</v>
       </c>
       <c r="V201" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.530329704284668</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1996671259403229</v>
+        <v>0.1242817714810371</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5281620025634766</v>
       </c>
       <c r="V202" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.4734745621681213</v>
       </c>
       <c r="W202" t="n">
-        <v>0.007869984023272991</v>
+        <v>0.002990716136991978</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5232300758361816</v>
       </c>
       <c r="V203" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.5514327883720398</v>
       </c>
       <c r="W203" t="n">
-        <v>0.04077940434217453</v>
+        <v>0.0007953930180519819</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5424840450286865</v>
       </c>
       <c r="V204" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.877259373664856</v>
       </c>
       <c r="W204" t="n">
-        <v>0.01133443042635918</v>
+        <v>0.1120745241641998</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5254621505737305</v>
       </c>
       <c r="V205" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.9018257856369019</v>
       </c>
       <c r="W205" t="n">
-        <v>0.002992385299876332</v>
+        <v>0.1416495889425278</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5266590118408203</v>
       </c>
       <c r="V206" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.515033483505249</v>
       </c>
       <c r="W206" t="n">
-        <v>0.009453409351408482</v>
+        <v>0.0001351529062958434</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5355939865112305</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.5407956838607788</v>
       </c>
       <c r="W207" t="n">
-        <v>0.001172059797681868</v>
+        <v>2.705765473365318e-05</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5759999752044678</v>
       </c>
       <c r="V208" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.4690637588500977</v>
       </c>
       <c r="W208" t="n">
-        <v>0.02906347624957561</v>
+        <v>0.01143535412847996</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5247800350189209</v>
       </c>
       <c r="V209" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.9239585399627686</v>
       </c>
       <c r="W209" t="n">
-        <v>0.0005307673127390444</v>
+        <v>0.1593434810638428</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5281009674072266</v>
       </c>
       <c r="V210" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.5791555047035217</v>
       </c>
       <c r="W210" t="n">
-        <v>0.0007240361883305013</v>
+        <v>0.002606565831229091</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5285990238189697</v>
       </c>
       <c r="V211" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.927111804485321</v>
       </c>
       <c r="W211" t="n">
-        <v>0.004866918548941612</v>
+        <v>0.1588124334812164</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5227119922637939</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.5426290035247803</v>
       </c>
       <c r="W212" t="n">
-        <v>0.0021131606772542</v>
+        <v>0.0003966873337049037</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.55399489402771</v>
       </c>
       <c r="V213" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.9913902878761292</v>
       </c>
       <c r="W213" t="n">
-        <v>0.005163047928363085</v>
+        <v>0.1913147270679474</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5322661399841309</v>
       </c>
       <c r="V214" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.9084322452545166</v>
       </c>
       <c r="W214" t="n">
-        <v>0.04619072750210762</v>
+        <v>0.1415009349584579</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5321099758148193</v>
       </c>
       <c r="V215" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.4847291707992554</v>
       </c>
       <c r="W215" t="n">
-        <v>0.004350217059254646</v>
+        <v>0.002244940726086497</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5320541858673096</v>
       </c>
       <c r="V216" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.5007237195968628</v>
       </c>
       <c r="W216" t="n">
-        <v>0.0004002615460194647</v>
+        <v>0.0009815981611609459</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5239830017089844</v>
       </c>
       <c r="V217" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.9979411363601685</v>
       </c>
       <c r="W217" t="n">
-        <v>0.0004940999788232148</v>
+        <v>0.2246363162994385</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5320918560028076</v>
       </c>
       <c r="V218" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.875163197517395</v>
       </c>
       <c r="W218" t="n">
-        <v>0.008078867569565773</v>
+        <v>0.1176979467272758</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5304038524627686</v>
       </c>
       <c r="V219" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.9099141359329224</v>
       </c>
       <c r="W219" t="n">
-        <v>0.01283763907849789</v>
+        <v>0.144028052687645</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5284748077392578</v>
       </c>
       <c r="V220" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.5779243111610413</v>
       </c>
       <c r="W220" t="n">
-        <v>0.003335112705826759</v>
+        <v>0.002445253310725093</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5291659832000732</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.4757557511329651</v>
       </c>
       <c r="W221" t="n">
-        <v>0.005468923132866621</v>
+        <v>0.002852652920410037</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3965609073638916</v>
       </c>
       <c r="V222" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.8883642554283142</v>
       </c>
       <c r="W222" t="n">
-        <v>0.172520637512207</v>
+        <v>0.2418705374002457</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.4020388126373291</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.5585525631904602</v>
       </c>
       <c r="W223" t="n">
-        <v>0.001136032748036087</v>
+        <v>0.02449655346572399</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3959829807281494</v>
       </c>
       <c r="V224" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.5234885811805725</v>
       </c>
       <c r="W224" t="n">
-        <v>0.03072286024689674</v>
+        <v>0.01625767722725868</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3968210220336914</v>
       </c>
       <c r="V225" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.4761378765106201</v>
       </c>
       <c r="W225" t="n">
-        <v>0.0524791032075882</v>
+        <v>0.006291163619607687</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.4008128643035889</v>
       </c>
       <c r="V226" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.5449661612510681</v>
       </c>
       <c r="W226" t="n">
-        <v>0.03062857128679752</v>
+        <v>0.02078017219901085</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.4058020114898682</v>
       </c>
       <c r="V227" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.4842109680175781</v>
       </c>
       <c r="W227" t="n">
-        <v>0.009242767468094826</v>
+        <v>0.006147964391857386</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4005289077758789</v>
       </c>
       <c r="V228" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.5003825426101685</v>
       </c>
       <c r="W228" t="n">
-        <v>0.004937115125358105</v>
+        <v>0.009970748797059059</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4071900844573975</v>
       </c>
       <c r="V229" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.5009380578994751</v>
       </c>
       <c r="W229" t="n">
-        <v>0.0442502461373806</v>
+        <v>0.008788682520389557</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.4014549255371094</v>
       </c>
       <c r="V230" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.5577698945999146</v>
       </c>
       <c r="W230" t="n">
-        <v>0.006388667970895767</v>
+        <v>0.02443436905741692</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.399465799331665</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.5268329977989197</v>
       </c>
       <c r="W231" t="n">
-        <v>0.0004365924978628755</v>
+        <v>0.01622240245342255</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.423166036605835</v>
       </c>
       <c r="V232" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.5790102481842041</v>
       </c>
       <c r="W232" t="n">
-        <v>0.006179907359182835</v>
+        <v>0.02428741753101349</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4035780429840088</v>
       </c>
       <c r="V233" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.4999536275863647</v>
       </c>
       <c r="W233" t="n">
-        <v>0.1718882322311401</v>
+        <v>0.009288253262639046</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.401951789855957</v>
       </c>
       <c r="V234" t="n">
-        <v>0.505409836769104</v>
+        <v>0.4689486026763916</v>
       </c>
       <c r="W234" t="n">
-        <v>0.01070356741547585</v>
+        <v>0.00448857294395566</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4051239490509033</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.9237151741981506</v>
       </c>
       <c r="W235" t="n">
-        <v>0.02445986866950989</v>
+        <v>0.2689368724822998</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4031229019165039</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.8669703006744385</v>
       </c>
       <c r="W236" t="n">
-        <v>0.04947101697325706</v>
+        <v>0.2151544094085693</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4201900959014893</v>
       </c>
       <c r="V237" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.4793025255203247</v>
       </c>
       <c r="W237" t="n">
-        <v>0.04924383759498596</v>
+        <v>0.003494279226288199</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3967459201812744</v>
       </c>
       <c r="V238" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.4667147397994995</v>
       </c>
       <c r="W238" t="n">
-        <v>0.003810850204899907</v>
+        <v>0.004895635880529881</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3987691402435303</v>
       </c>
       <c r="V239" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.5302450656890869</v>
       </c>
       <c r="W239" t="n">
-        <v>0.04952146112918854</v>
+        <v>0.0172859188169241</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3924760818481445</v>
       </c>
       <c r="V240" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.5312325358390808</v>
       </c>
       <c r="W240" t="n">
-        <v>0.01250866800546646</v>
+        <v>0.01925335265696049</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4018580913543701</v>
       </c>
       <c r="V241" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.4907793402671814</v>
       </c>
       <c r="W241" t="n">
-        <v>0.002196109155192971</v>
+        <v>0.007906988263130188</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8965730667114258</v>
       </c>
       <c r="V242" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.5418835282325745</v>
       </c>
       <c r="W242" t="n">
-        <v>0.2121020555496216</v>
+        <v>0.1258046627044678</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.9089839458465576</v>
       </c>
       <c r="V243" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.4834960699081421</v>
       </c>
       <c r="W243" t="n">
-        <v>0.20372374355793</v>
+        <v>0.1810399293899536</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8760650157928467</v>
       </c>
       <c r="V244" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.9017737507820129</v>
       </c>
       <c r="W244" t="n">
-        <v>0.09181433171033859</v>
+        <v>0.0006609390256926417</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8791601657867432</v>
       </c>
       <c r="V245" t="n">
-        <v>0.458252340555191</v>
+        <v>0.4795850515365601</v>
       </c>
       <c r="W245" t="n">
-        <v>0.1771633923053741</v>
+        <v>0.1596602648496628</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9324619770050049</v>
       </c>
       <c r="V246" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.9246851205825806</v>
       </c>
       <c r="W246" t="n">
-        <v>0.09483394771814346</v>
+        <v>6.047949500498362e-05</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8800458908081055</v>
       </c>
       <c r="V247" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.9227799773216248</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1649321317672729</v>
+        <v>0.001826202147640288</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8793540000915527</v>
       </c>
       <c r="V248" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.5301658511161804</v>
       </c>
       <c r="W248" t="n">
-        <v>0.06664233654737473</v>
+        <v>0.121932365000248</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8786931037902832</v>
       </c>
       <c r="V249" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.5708769559860229</v>
       </c>
       <c r="W249" t="n">
-        <v>0.07509771734476089</v>
+        <v>0.0947507843375206</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.9309940338134766</v>
       </c>
       <c r="V250" t="n">
-        <v>0.436014860868454</v>
+        <v>0.9805676937103271</v>
       </c>
       <c r="W250" t="n">
-        <v>0.2450043857097626</v>
+        <v>0.002457547700032592</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8892269134521484</v>
       </c>
       <c r="V251" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.4881194233894348</v>
       </c>
       <c r="W251" t="n">
-        <v>0.2604601383209229</v>
+        <v>0.160887211561203</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8891749382019043</v>
       </c>
       <c r="V252" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.9515613913536072</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1138710752129555</v>
+        <v>0.003892069449648261</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8780548572540283</v>
       </c>
       <c r="V253" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.4745525121688843</v>
       </c>
       <c r="W253" t="n">
-        <v>0.1789222806692123</v>
+        <v>0.1628141403198242</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9389069080352783</v>
       </c>
       <c r="V254" t="n">
-        <v>0.390147477388382</v>
+        <v>0.8935163617134094</v>
       </c>
       <c r="W254" t="n">
-        <v>0.3011369407176971</v>
+        <v>0.002060301601886749</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8801581859588623</v>
       </c>
       <c r="V255" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.888462245464325</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1102083027362823</v>
+        <v>6.895740079926327e-05</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8771109580993652</v>
       </c>
       <c r="V256" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.9196632504463196</v>
       </c>
       <c r="W256" t="n">
-        <v>0.003402534872293472</v>
+        <v>0.001810697605833411</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8745999336242676</v>
       </c>
       <c r="V257" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.5299962759017944</v>
       </c>
       <c r="W257" t="n">
-        <v>0.06202573329210281</v>
+        <v>0.1187516823410988</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.9290149211883545</v>
       </c>
       <c r="V258" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.5301015377044678</v>
       </c>
       <c r="W258" t="n">
-        <v>0.3038053214550018</v>
+        <v>0.1591318845748901</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8823690414428711</v>
       </c>
       <c r="V259" t="n">
-        <v>0.43533855676651</v>
+        <v>0.9255553483963013</v>
       </c>
       <c r="W259" t="n">
-        <v>0.199836254119873</v>
+        <v>0.001865057158283889</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8781278133392334</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.5302043557167053</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1458643674850464</v>
+        <v>0.1210507303476334</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8748369216918945</v>
       </c>
       <c r="V261" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.500306248664856</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1633525043725967</v>
+        <v>0.1402732282876968</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5938420295715332</v>
       </c>
       <c r="V262" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.4747174382209778</v>
       </c>
       <c r="W262" t="n">
-        <v>0.002475593239068985</v>
+        <v>0.01419066824018955</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5308761596679688</v>
       </c>
       <c r="V263" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.5328373312950134</v>
       </c>
       <c r="W263" t="n">
-        <v>0.007685271091759205</v>
+        <v>3.846193976642098e-06</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.53078293800354</v>
       </c>
       <c r="V264" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.9031219482421875</v>
       </c>
       <c r="W264" t="n">
-        <v>0.008752042427659035</v>
+        <v>0.1386363357305527</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5321099758148193</v>
       </c>
       <c r="V265" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.4828216433525085</v>
       </c>
       <c r="W265" t="n">
-        <v>0.007902801968157291</v>
+        <v>0.002429339801892638</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.526785135269165</v>
       </c>
       <c r="V266" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.9908787608146667</v>
       </c>
       <c r="W266" t="n">
-        <v>0.01593485660851002</v>
+        <v>0.2153828889131546</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5287060737609863</v>
       </c>
       <c r="V267" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.5405645966529846</v>
       </c>
       <c r="W267" t="n">
-        <v>0.03848116099834442</v>
+        <v>0.0001406245719408616</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5373499393463135</v>
       </c>
       <c r="V268" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.8882370591163635</v>
       </c>
       <c r="W268" t="n">
-        <v>0.007015272043645382</v>
+        <v>0.1231217682361603</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5332040786743164</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.9260453581809998</v>
       </c>
       <c r="W269" t="n">
-        <v>0.00944393128156662</v>
+        <v>0.1543242782354355</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5291488170623779</v>
       </c>
       <c r="V270" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.51692795753479</v>
       </c>
       <c r="W270" t="n">
-        <v>0.01672345399856567</v>
+        <v>0.0001493494055466726</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5307879447937012</v>
       </c>
       <c r="V271" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.4867957830429077</v>
       </c>
       <c r="W271" t="n">
-        <v>0.008209161460399628</v>
+        <v>0.00193531031254679</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5585048198699951</v>
       </c>
       <c r="V272" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.518281877040863</v>
       </c>
       <c r="W272" t="n">
-        <v>0.003017432754859328</v>
+        <v>0.001617885078303516</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5304770469665527</v>
       </c>
       <c r="V273" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.5302577018737793</v>
       </c>
       <c r="W273" t="n">
-        <v>0.005639298819005489</v>
+        <v>4.81122697237879e-08</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5393650531768799</v>
       </c>
       <c r="V274" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.5241631865501404</v>
       </c>
       <c r="W274" t="n">
-        <v>0.03779185190796852</v>
+        <v>0.0002310967538505793</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.530526876449585</v>
       </c>
       <c r="V275" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.4831044673919678</v>
       </c>
       <c r="W275" t="n">
-        <v>0.001474069780670106</v>
+        <v>0.002248884877189994</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5247819423675537</v>
       </c>
       <c r="V276" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.5424133539199829</v>
       </c>
       <c r="W276" t="n">
-        <v>0.004972256720066071</v>
+        <v>0.0003108666860498488</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5311920642852783</v>
       </c>
       <c r="V277" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.4685271978378296</v>
       </c>
       <c r="W277" t="n">
-        <v>0.008082570508122444</v>
+        <v>0.003926885314285755</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5867609977722168</v>
       </c>
       <c r="V278" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.8960579633712769</v>
       </c>
       <c r="W278" t="n">
-        <v>0.001171806710772216</v>
+        <v>0.0956646129488945</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5344638824462891</v>
       </c>
       <c r="V279" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.5583543181419373</v>
       </c>
       <c r="W279" t="n">
-        <v>0.0796784833073616</v>
+        <v>0.0005707528907805681</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5314650535583496</v>
       </c>
       <c r="V280" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.4910324811935425</v>
       </c>
       <c r="W280" t="n">
-        <v>0.005375075154006481</v>
+        <v>0.001634792890399694</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5317761898040771</v>
       </c>
       <c r="V281" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.9486580491065979</v>
       </c>
       <c r="W281" t="n">
-        <v>0.0002466616570018232</v>
+        <v>0.1737904846668243</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4230308532714844</v>
       </c>
       <c r="V282" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.9010651111602783</v>
       </c>
       <c r="W282" t="n">
-        <v>0.001049459562636912</v>
+        <v>0.2285167574882507</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3990850448608398</v>
       </c>
       <c r="V283" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.5428085923194885</v>
       </c>
       <c r="W283" t="n">
-        <v>0.001363683608360589</v>
+        <v>0.02065645717084408</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4070529937744141</v>
       </c>
       <c r="V284" t="n">
-        <v>0.624285101890564</v>
+        <v>0.4830279350280762</v>
       </c>
       <c r="W284" t="n">
-        <v>0.04718978703022003</v>
+        <v>0.005772191565483809</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4048349857330322</v>
       </c>
       <c r="V285" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.9500123858451843</v>
       </c>
       <c r="W285" t="n">
-        <v>0.04491004720330238</v>
+        <v>0.2972184121608734</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.406702995300293</v>
       </c>
       <c r="V286" t="n">
-        <v>0.56879723072052</v>
+        <v>0.5149635076522827</v>
       </c>
       <c r="W286" t="n">
-        <v>0.0262745413929224</v>
+        <v>0.01172033883631229</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4059619903564453</v>
       </c>
       <c r="V287" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.4832473993301392</v>
       </c>
       <c r="W287" t="n">
-        <v>0.04637655988335609</v>
+        <v>0.005973034538328648</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4372608661651611</v>
       </c>
       <c r="V288" t="n">
-        <v>0.816550612449646</v>
+        <v>0.5279580950737</v>
       </c>
       <c r="W288" t="n">
-        <v>0.143860712647438</v>
+        <v>0.008225987665355206</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4214448928833008</v>
       </c>
       <c r="V289" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.5462971925735474</v>
       </c>
       <c r="W289" t="n">
-        <v>0.04172462970018387</v>
+        <v>0.01558809634298086</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.405580997467041</v>
       </c>
       <c r="V290" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.5407387018203735</v>
       </c>
       <c r="W290" t="n">
-        <v>0.0007315906113944948</v>
+        <v>0.01826760545372963</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4069550037384033</v>
       </c>
       <c r="V291" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.4820652008056641</v>
       </c>
       <c r="W291" t="n">
-        <v>0.04716923087835312</v>
+        <v>0.005641541909426451</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4062590599060059</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.8929843306541443</v>
       </c>
       <c r="W292" t="n">
-        <v>0.002631728537380695</v>
+        <v>0.2369014918804169</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4088070392608643</v>
       </c>
       <c r="V293" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.5785549879074097</v>
       </c>
       <c r="W293" t="n">
-        <v>0.1680295020341873</v>
+        <v>0.02881436608731747</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4034960269927979</v>
       </c>
       <c r="V294" t="n">
-        <v>0.474732518196106</v>
+        <v>0.8888211846351624</v>
       </c>
       <c r="W294" t="n">
-        <v>0.005074637476354837</v>
+        <v>0.235540509223938</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.4058558940887451</v>
       </c>
       <c r="V295" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.8826320171356201</v>
       </c>
       <c r="W295" t="n">
-        <v>0.04545875266194344</v>
+        <v>0.2273154705762863</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4321548938751221</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.9100469350814819</v>
       </c>
       <c r="W296" t="n">
-        <v>0.005550919566303492</v>
+        <v>0.2283807992935181</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4095630645751953</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.4691895842552185</v>
       </c>
       <c r="W297" t="n">
-        <v>0.0007186956936493516</v>
+        <v>0.003555321833118796</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4084219932556152</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.9347415566444397</v>
       </c>
       <c r="W298" t="n">
-        <v>0.002486218698322773</v>
+        <v>0.2770122885704041</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4173779487609863</v>
       </c>
       <c r="V299" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.4774885773658752</v>
       </c>
       <c r="W299" t="n">
-        <v>0.05896451696753502</v>
+        <v>0.003613287582993507</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4374079704284668</v>
       </c>
       <c r="V300" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.9316860437393188</v>
       </c>
       <c r="W300" t="n">
-        <v>0.0482633151113987</v>
+        <v>0.2443108111619949</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4077270030975342</v>
       </c>
       <c r="V301" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.5305033326148987</v>
       </c>
       <c r="W301" t="n">
-        <v>0.0008006632560864091</v>
+        <v>0.01507402677088976</v>
       </c>
     </row>
     <row r="302" spans="1:23">
